--- a/Preprocessing/Nb_epoch_table.xlsx
+++ b/Preprocessing/Nb_epoch_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mip/Documents/Early-psychosis_Project/Preprocessing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F757E-6ED0-514C-A569-B8CEA5701A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557A40F9-2D4A-2D45-B927-3231F2B32B42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{FD7C3A98-3EDB-0D48-8A27-40423B80269E}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>'L360'</t>
   </si>
@@ -566,9 +566,6 @@
     <t>'Ctrl005'</t>
   </si>
   <si>
-    <t>'Ctrl006'</t>
-  </si>
-  <si>
     <t>'Ctrl007'</t>
   </si>
   <si>
@@ -641,9 +638,6 @@
     <t>'Ctrl030'</t>
   </si>
   <si>
-    <t>'Ctrl031'</t>
-  </si>
-  <si>
     <t>'Ctrl032'</t>
   </si>
   <si>
@@ -783,9 +777,6 @@
   </si>
   <si>
     <t>'F145'</t>
-  </si>
-  <si>
-    <t>'F147'</t>
   </si>
   <si>
     <t>'F166'</t>
@@ -839,10 +830,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1157,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93C3A9A7-DC74-BE4F-A588-FA8E89D02ACE}">
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" workbookViewId="0">
-      <selection activeCell="P204" sqref="P204"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="K150" sqref="K150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1199,25 +1191,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1065</v>
+        <v>1055</v>
       </c>
       <c r="C2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D2">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G2">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="H2">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I2">
         <v>72</v>
@@ -1228,28 +1220,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="C3">
+        <v>70</v>
+      </c>
+      <c r="D3">
         <v>73</v>
       </c>
-      <c r="D3">
-        <v>74</v>
-      </c>
       <c r="E3">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F3">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1257,28 +1249,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>847</v>
+        <v>800</v>
       </c>
       <c r="C4">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1286,28 +1278,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1302</v>
+        <v>1246</v>
       </c>
       <c r="C5">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E5">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F5">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G5">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I5">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1315,25 +1307,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F6">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <v>74</v>
       </c>
       <c r="H6">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I6">
         <v>74</v>
@@ -1344,28 +1336,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1008</v>
+        <v>955</v>
       </c>
       <c r="C7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E7">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7">
+        <v>50</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
         <v>49</v>
       </c>
-      <c r="G7">
-        <v>48</v>
-      </c>
-      <c r="H7">
-        <v>50</v>
-      </c>
       <c r="I7">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1373,28 +1365,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1288</v>
+        <v>1254</v>
       </c>
       <c r="C8">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E8">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="F8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G8">
         <v>72</v>
       </c>
       <c r="H8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1402,28 +1394,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1033</v>
+        <v>953</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E9">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F9">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G9">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I9">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1431,28 +1423,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1295</v>
+        <v>1272</v>
       </c>
       <c r="C10">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D10">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F10">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H10">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I10">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1460,28 +1452,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C11">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D11">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E11">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F11">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G11">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H11">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I11">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1489,28 +1481,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1295</v>
+        <v>1237</v>
       </c>
       <c r="C12">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D12">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E12">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F12">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G12">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H12">
         <v>63</v>
       </c>
       <c r="I12">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1518,16 +1510,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1076</v>
+        <v>1059</v>
       </c>
       <c r="C13">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E13">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13">
         <v>74</v>
@@ -1547,28 +1539,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1158</v>
+        <v>1094</v>
       </c>
       <c r="C14">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D14">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E14">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F14">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G14">
+        <v>70</v>
+      </c>
+      <c r="H14">
+        <v>71</v>
+      </c>
+      <c r="I14">
         <v>66</v>
-      </c>
-      <c r="H14">
-        <v>66</v>
-      </c>
-      <c r="I14">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1576,28 +1568,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>789</v>
+        <v>478</v>
       </c>
       <c r="C15">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="E15">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G15">
         <v>70</v>
       </c>
       <c r="H15">
+        <v>72</v>
+      </c>
+      <c r="I15">
         <v>67</v>
-      </c>
-      <c r="I15">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1605,28 +1597,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1250</v>
+        <v>1212</v>
       </c>
       <c r="C16">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E16">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="F16">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G16">
         <v>68</v>
       </c>
       <c r="H16">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I16">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1634,28 +1626,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1228</v>
+        <v>1080</v>
       </c>
       <c r="C17">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D17">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="E17">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F17">
+        <v>67</v>
+      </c>
+      <c r="G17">
+        <v>65</v>
+      </c>
+      <c r="H17">
         <v>63</v>
       </c>
-      <c r="G17">
-        <v>63</v>
-      </c>
-      <c r="H17">
-        <v>68</v>
-      </c>
       <c r="I17">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1663,28 +1655,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1375</v>
+        <v>725</v>
       </c>
       <c r="C18">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="D18">
-        <v>117</v>
+        <v>49</v>
       </c>
       <c r="E18">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="F18">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="G18">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="H18">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="I18">
-        <v>75</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1692,28 +1684,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>714</v>
+        <v>794</v>
       </c>
       <c r="C19">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="D19">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E19">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F19">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H19">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I19">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1721,28 +1713,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1314</v>
+        <v>1260</v>
       </c>
       <c r="C20">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D20">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F20">
+        <v>72</v>
+      </c>
+      <c r="G20">
+        <v>74</v>
+      </c>
+      <c r="H20">
         <v>69</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>72</v>
-      </c>
-      <c r="H20">
-        <v>67</v>
-      </c>
-      <c r="I20">
-        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1750,28 +1742,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>971</v>
+        <v>912</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D21">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E21">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F21">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G21">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H21">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1779,28 +1771,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1279</v>
+        <v>1221</v>
       </c>
       <c r="C22">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D22">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E22">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F22">
+        <v>68</v>
+      </c>
+      <c r="G22">
+        <v>67</v>
+      </c>
+      <c r="H22">
+        <v>69</v>
+      </c>
+      <c r="I22">
         <v>64</v>
-      </c>
-      <c r="G22">
-        <v>64</v>
-      </c>
-      <c r="H22">
-        <v>66</v>
-      </c>
-      <c r="I22">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1808,28 +1800,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1165</v>
+        <v>557</v>
       </c>
       <c r="C23">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="E23">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="F23">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="G23">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I23">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1837,28 +1829,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>838</v>
+        <v>812</v>
       </c>
       <c r="C24">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>62</v>
       </c>
       <c r="E24">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F24">
+        <v>70</v>
+      </c>
+      <c r="G24">
+        <v>72</v>
+      </c>
+      <c r="H24">
         <v>71</v>
       </c>
-      <c r="G24">
-        <v>73</v>
-      </c>
-      <c r="H24">
-        <v>74</v>
-      </c>
       <c r="I24">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1866,28 +1858,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>894</v>
+        <v>607</v>
       </c>
       <c r="C25">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="E25">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F25">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1895,28 +1887,28 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>1089</v>
+        <v>891</v>
       </c>
       <c r="C26">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="D26">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E26">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F26">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G26">
+        <v>40</v>
+      </c>
+      <c r="H26">
+        <v>40</v>
+      </c>
+      <c r="I26">
         <v>47</v>
-      </c>
-      <c r="H26">
-        <v>36</v>
-      </c>
-      <c r="I26">
-        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1924,28 +1916,28 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>1168</v>
+        <v>1134</v>
       </c>
       <c r="C27">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E27">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F27">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G27">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="H27">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="I27">
-        <v>46</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1953,25 +1945,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1057</v>
+        <v>981</v>
       </c>
       <c r="C28">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D28">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E28">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F28">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G28">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H28">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I28">
         <v>74</v>
@@ -1994,13 +1986,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="G29">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H29">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I29">
         <v>66</v>
@@ -2011,28 +2003,28 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>944</v>
+        <v>807</v>
       </c>
       <c r="C30">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D30">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E30">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>67</v>
       </c>
       <c r="G30">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H30">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I30">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2040,28 +2032,28 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>18</v>
       </c>
       <c r="F31">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G31">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="H31">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="I31">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2069,19 +2061,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>619</v>
+        <v>456</v>
       </c>
       <c r="C32">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D32">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="E32">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F32">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G32">
         <v>67</v>
@@ -2090,7 +2082,7 @@
         <v>67</v>
       </c>
       <c r="I32">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2098,28 +2090,28 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>856</v>
+        <v>732</v>
       </c>
       <c r="C33">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="D33">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E33">
+        <v>58</v>
+      </c>
+      <c r="F33">
+        <v>74</v>
+      </c>
+      <c r="G33">
+        <v>73</v>
+      </c>
+      <c r="H33">
+        <v>74</v>
+      </c>
+      <c r="I33">
         <v>75</v>
-      </c>
-      <c r="F33">
-        <v>66</v>
-      </c>
-      <c r="G33">
-        <v>65</v>
-      </c>
-      <c r="H33">
-        <v>63</v>
-      </c>
-      <c r="I33">
-        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2127,28 +2119,28 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>699</v>
+        <v>538</v>
       </c>
       <c r="C34">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>53</v>
+      </c>
+      <c r="E34">
+        <v>29</v>
+      </c>
+      <c r="F34">
+        <v>62</v>
+      </c>
+      <c r="G34">
+        <v>66</v>
+      </c>
+      <c r="H34">
         <v>69</v>
       </c>
-      <c r="D34">
-        <v>64</v>
-      </c>
-      <c r="E34">
-        <v>39</v>
-      </c>
-      <c r="F34">
-        <v>20</v>
-      </c>
-      <c r="G34">
-        <v>26</v>
-      </c>
-      <c r="H34">
-        <v>15</v>
-      </c>
       <c r="I34">
-        <v>24</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2156,16 +2148,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="C35">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E35">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2185,28 +2177,28 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>470</v>
+        <v>389</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D36">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E36">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F36">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G36">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I36">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2214,16 +2206,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>1270</v>
+        <v>1190</v>
       </c>
       <c r="C37">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E37">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2243,16 +2235,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>1014</v>
+        <v>856</v>
       </c>
       <c r="C38">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D38">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="E38">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F38">
         <v>69</v>
@@ -2261,7 +2253,7 @@
         <v>71</v>
       </c>
       <c r="H38">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I38">
         <v>72</v>
@@ -2272,28 +2264,28 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>888</v>
+        <v>737</v>
       </c>
       <c r="C39">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D39">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="E39">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F39">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G39">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H39">
         <v>74</v>
       </c>
       <c r="I39">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2301,25 +2293,25 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>1398</v>
+        <v>1391</v>
       </c>
       <c r="C40">
         <v>118</v>
       </c>
       <c r="D40">
+        <v>114</v>
+      </c>
+      <c r="E40">
         <v>115</v>
-      </c>
-      <c r="E40">
-        <v>117</v>
       </c>
       <c r="F40">
         <v>75</v>
       </c>
       <c r="G40">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H40">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I40">
         <v>75</v>
@@ -2330,28 +2322,28 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>1047</v>
+        <v>837</v>
       </c>
       <c r="C41">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="D41">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="E41">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="F41">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G41">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="H41">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="I41">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2359,25 +2351,25 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>1097</v>
+        <v>823</v>
       </c>
       <c r="C42">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="E42">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="F42">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G42">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="H42">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I42">
         <v>68</v>
@@ -2388,28 +2380,28 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>821</v>
+        <v>784</v>
       </c>
       <c r="C43">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D43">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E43">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="F43">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="G43">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="H43">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="I43">
-        <v>42</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2417,28 +2409,28 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>1072</v>
+        <v>877</v>
       </c>
       <c r="C44">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="D44">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E44">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="F44">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G44">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="H44">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I44">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2446,16 +2438,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>958</v>
+        <v>832</v>
       </c>
       <c r="C45">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D45">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="E45">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F45">
         <v>67</v>
@@ -2466,8 +2458,8 @@
       <c r="H45">
         <v>70</v>
       </c>
-      <c r="I45" s="1">
-        <v>0</v>
+      <c r="I45" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2475,28 +2467,28 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>1107</v>
+        <v>986</v>
       </c>
       <c r="C46">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D46">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="E46">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F46">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G46">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46">
         <v>43</v>
       </c>
-      <c r="I46" s="1">
-        <v>0</v>
+      <c r="I46" s="3">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2504,28 +2496,28 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>1302</v>
+        <v>1000</v>
       </c>
       <c r="C47">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="D47">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="E47">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="I47" s="3">
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2533,28 +2525,28 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>1244</v>
+        <v>969</v>
       </c>
       <c r="C48">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D48">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="E48">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" s="1">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="I48" s="3">
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2562,28 +2554,28 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>1251</v>
+        <v>1084</v>
       </c>
       <c r="C49">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D49">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="E49">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49" s="1">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2591,28 +2583,28 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>1207</v>
+        <v>1066</v>
       </c>
       <c r="C50">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="D50">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E50">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="F50">
         <v>67</v>
       </c>
       <c r="G50">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H50">
         <v>71</v>
       </c>
-      <c r="I50" s="1">
-        <v>0</v>
+      <c r="I50" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2620,16 +2612,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>1300</v>
+        <v>1225</v>
       </c>
       <c r="C51">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D51">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E51">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F51">
         <v>75</v>
@@ -2638,10 +2630,10 @@
         <v>73</v>
       </c>
       <c r="H51">
+        <v>74</v>
+      </c>
+      <c r="I51" s="3">
         <v>75</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2649,16 +2641,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>1227</v>
+        <v>1163</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D52">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E52">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F52">
         <v>71</v>
@@ -2669,8 +2661,8 @@
       <c r="H52">
         <v>69</v>
       </c>
-      <c r="I52" s="1">
-        <v>0</v>
+      <c r="I52" s="3">
+        <v>74</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2678,28 +2670,28 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C53">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D53">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E53">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F53">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G53">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H53">
-        <v>36</v>
-      </c>
-      <c r="I53" s="1">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="I53" s="3">
+        <v>42</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2707,28 +2699,28 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>642</v>
+        <v>573</v>
       </c>
       <c r="C54">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D54">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E54">
         <v>58</v>
       </c>
       <c r="F54">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H54">
-        <v>42</v>
-      </c>
-      <c r="I54" s="1">
-        <v>0</v>
+        <v>45</v>
+      </c>
+      <c r="I54" s="3">
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2736,28 +2728,28 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>758</v>
+        <v>569</v>
       </c>
       <c r="C55">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D55">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="E55">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="F55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G55">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H55">
         <v>37</v>
       </c>
-      <c r="I55" s="1">
-        <v>0</v>
+      <c r="I55" s="3">
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2765,28 +2757,28 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>1076</v>
+        <v>960</v>
       </c>
       <c r="C56">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D56">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E56">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F56">
         <v>60</v>
       </c>
       <c r="G56">
+        <v>60</v>
+      </c>
+      <c r="H56">
+        <v>56</v>
+      </c>
+      <c r="I56" s="3">
         <v>59</v>
-      </c>
-      <c r="H56">
-        <v>58</v>
-      </c>
-      <c r="I56" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2794,19 +2786,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>1229</v>
+        <v>1213</v>
       </c>
       <c r="C57">
         <v>101</v>
       </c>
       <c r="D57">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E57">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F57">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G57">
         <v>69</v>
@@ -2814,8 +2806,8 @@
       <c r="H57">
         <v>69</v>
       </c>
-      <c r="I57" s="1">
-        <v>0</v>
+      <c r="I57" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2823,28 +2815,28 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1308</v>
+        <v>1228</v>
       </c>
       <c r="C58">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D58">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E58">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F58">
+        <v>64</v>
+      </c>
+      <c r="G58">
+        <v>59</v>
+      </c>
+      <c r="H58">
+        <v>60</v>
+      </c>
+      <c r="I58" s="3">
         <v>65</v>
-      </c>
-      <c r="G58">
-        <v>58</v>
-      </c>
-      <c r="H58">
-        <v>61</v>
-      </c>
-      <c r="I58" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2852,19 +2844,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>1219</v>
+        <v>1120</v>
       </c>
       <c r="C59">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="D59">
+        <v>82</v>
+      </c>
+      <c r="E59">
         <v>94</v>
       </c>
-      <c r="E59">
-        <v>105</v>
-      </c>
       <c r="F59">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G59">
         <v>62</v>
@@ -2872,8 +2864,8 @@
       <c r="H59">
         <v>61</v>
       </c>
-      <c r="I59" s="1">
-        <v>0</v>
+      <c r="I59" s="3">
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2881,19 +2873,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>1033</v>
+        <v>985</v>
       </c>
       <c r="C60">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D60">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E60">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F60">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G60">
         <v>63</v>
@@ -2901,8 +2893,8 @@
       <c r="H60">
         <v>62</v>
       </c>
-      <c r="I60" s="1">
-        <v>0</v>
+      <c r="I60" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2910,28 +2902,28 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>793</v>
+        <v>598</v>
       </c>
       <c r="C61">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="D61">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E61">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="F61">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G61">
         <v>69</v>
       </c>
       <c r="H61">
-        <v>71</v>
-      </c>
-      <c r="I61" s="1">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="I61" s="3">
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2939,28 +2931,28 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>819</v>
+        <v>777</v>
       </c>
       <c r="C62">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D62">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E62">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F62">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G62">
         <v>48</v>
       </c>
       <c r="H62">
-        <v>41</v>
-      </c>
-      <c r="I62" s="1">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="I62" s="3">
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2968,16 +2960,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>1172</v>
+        <v>1086</v>
       </c>
       <c r="C63">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D63">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E63">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="F63">
         <v>70</v>
@@ -2988,8 +2980,8 @@
       <c r="H63">
         <v>69</v>
       </c>
-      <c r="I63" s="1">
-        <v>0</v>
+      <c r="I63" s="3">
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2997,28 +2989,28 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>1266</v>
+        <v>1209</v>
       </c>
       <c r="C64">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D64">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E64">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F64">
         <v>73</v>
       </c>
       <c r="G64">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H64">
         <v>75</v>
       </c>
-      <c r="I64" s="1">
-        <v>0</v>
+      <c r="I64" s="3">
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3026,28 +3018,28 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>1341</v>
+        <v>1300</v>
       </c>
       <c r="C65">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D65">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E65">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F65">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G65">
         <v>70</v>
       </c>
       <c r="H65">
-        <v>70</v>
-      </c>
-      <c r="I65" s="1">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="I65" s="3">
+        <v>74</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3055,28 +3047,28 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>794</v>
+        <v>744</v>
       </c>
       <c r="C66">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D66">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E66">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F66">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G66">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H66">
         <v>68</v>
       </c>
-      <c r="I66" s="1">
-        <v>0</v>
+      <c r="I66" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3084,16 +3076,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>994</v>
+        <v>963</v>
       </c>
       <c r="C67">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D67">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E67">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F67">
         <v>73</v>
@@ -3102,10 +3094,10 @@
         <v>74</v>
       </c>
       <c r="H67">
+        <v>69</v>
+      </c>
+      <c r="I67" s="3">
         <v>70</v>
-      </c>
-      <c r="I67" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3113,28 +3105,28 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>1057</v>
+        <v>875</v>
       </c>
       <c r="C68">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D68">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="E68">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="F68">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G68">
         <v>70</v>
       </c>
       <c r="H68">
+        <v>73</v>
+      </c>
+      <c r="I68" s="3">
         <v>72</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3142,16 +3134,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>1090</v>
+        <v>965</v>
       </c>
       <c r="C69">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D69">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E69">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F69">
         <v>75</v>
@@ -3162,8 +3154,8 @@
       <c r="H69">
         <v>70</v>
       </c>
-      <c r="I69" s="1">
-        <v>0</v>
+      <c r="I69" s="3">
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3171,28 +3163,28 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>499</v>
+        <v>330</v>
       </c>
       <c r="C70">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="D70">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E70">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F70">
+        <v>52</v>
+      </c>
+      <c r="G70">
+        <v>60</v>
+      </c>
+      <c r="H70">
         <v>53</v>
       </c>
-      <c r="G70">
+      <c r="I70" s="3">
         <v>56</v>
-      </c>
-      <c r="H70">
-        <v>54</v>
-      </c>
-      <c r="I70" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3200,28 +3192,28 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>1211</v>
+        <v>1029</v>
       </c>
       <c r="C71">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="D71">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="E71">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F71">
         <v>52</v>
       </c>
       <c r="G71">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H71">
-        <v>53</v>
-      </c>
-      <c r="I71" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="I71" s="3">
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3229,16 +3221,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>1370</v>
+        <v>1182</v>
       </c>
       <c r="C72">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="D72">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E72">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F72">
         <v>55</v>
@@ -3249,8 +3241,8 @@
       <c r="H72">
         <v>55</v>
       </c>
-      <c r="I72" s="1">
-        <v>0</v>
+      <c r="I72" s="3">
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3258,28 +3250,28 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1308</v>
+        <v>1104</v>
       </c>
       <c r="C73">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="D73">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="E73">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="F73">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G73">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H73">
-        <v>57</v>
-      </c>
-      <c r="I73" s="1">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="I73" s="3">
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3287,19 +3279,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1011</v>
+        <v>762</v>
       </c>
       <c r="C74">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="D74">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E74">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="F74">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G74">
         <v>73</v>
@@ -3307,8 +3299,8 @@
       <c r="H74">
         <v>74</v>
       </c>
-      <c r="I74" s="1">
-        <v>0</v>
+      <c r="I74" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3316,28 +3308,28 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>950</v>
+        <v>758</v>
       </c>
       <c r="C75">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D75">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="E75">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F75">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G75">
         <v>64</v>
       </c>
       <c r="H75">
-        <v>72</v>
-      </c>
-      <c r="I75" s="1">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="I75" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3345,16 +3337,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>1140</v>
+        <v>946</v>
       </c>
       <c r="C76">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D76">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="E76">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F76">
         <v>63</v>
@@ -3365,8 +3357,8 @@
       <c r="H76">
         <v>68</v>
       </c>
-      <c r="I76" s="1">
-        <v>0</v>
+      <c r="I76" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3374,28 +3366,28 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>951</v>
+        <v>604</v>
       </c>
       <c r="C77">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="D77">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="E77">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="F77">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G77">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H77">
-        <v>35</v>
-      </c>
-      <c r="I77" s="1">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="I77" s="3">
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3403,16 +3395,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1051</v>
+        <v>976</v>
       </c>
       <c r="C78">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D78">
+        <v>64</v>
+      </c>
+      <c r="E78">
         <v>76</v>
-      </c>
-      <c r="E78">
-        <v>79</v>
       </c>
       <c r="F78">
         <v>65</v>
@@ -3423,8 +3415,8 @@
       <c r="H78">
         <v>68</v>
       </c>
-      <c r="I78" s="1">
-        <v>0</v>
+      <c r="I78" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3432,16 +3424,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>1360</v>
+        <v>1292</v>
       </c>
       <c r="C79">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D79">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E79">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F79">
         <v>70</v>
@@ -3452,8 +3444,8 @@
       <c r="H79">
         <v>74</v>
       </c>
-      <c r="I79" s="1">
-        <v>0</v>
+      <c r="I79" s="3">
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3461,28 +3453,28 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>1260</v>
+        <v>1042</v>
       </c>
       <c r="C80">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="D80">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E80">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F80">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G80">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H80">
         <v>52</v>
       </c>
-      <c r="I80" s="1">
-        <v>0</v>
+      <c r="I80" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3490,19 +3482,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1231</v>
+        <v>1076</v>
       </c>
       <c r="C81">
+        <v>84</v>
+      </c>
+      <c r="D81">
+        <v>79</v>
+      </c>
+      <c r="E81">
         <v>100</v>
       </c>
-      <c r="D81">
-        <v>95</v>
-      </c>
-      <c r="E81">
-        <v>108</v>
-      </c>
       <c r="F81">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G81">
         <v>68</v>
@@ -3510,8 +3502,8 @@
       <c r="H81">
         <v>69</v>
       </c>
-      <c r="I81" s="1">
-        <v>0</v>
+      <c r="I81" s="3">
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3519,28 +3511,28 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>1270</v>
+        <v>1014</v>
       </c>
       <c r="C82">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="D82">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="E82">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F82">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G82">
         <v>57</v>
       </c>
       <c r="H82">
-        <v>59</v>
-      </c>
-      <c r="I82" s="1">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="I82" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3548,28 +3540,28 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>971</v>
+        <v>581</v>
       </c>
       <c r="C83">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D83">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E83">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="F83">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G83">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H83">
-        <v>29</v>
-      </c>
-      <c r="I83" s="1">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="I83" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3577,45 +3569,45 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>716</v>
+        <v>609</v>
       </c>
       <c r="C84">
+        <v>52</v>
+      </c>
+      <c r="D84">
+        <v>50</v>
+      </c>
+      <c r="E84">
+        <v>41</v>
+      </c>
+      <c r="F84">
+        <v>61</v>
+      </c>
+      <c r="G84">
+        <v>66</v>
+      </c>
+      <c r="H84">
         <v>65</v>
       </c>
-      <c r="D84">
-        <v>72</v>
-      </c>
-      <c r="E84">
-        <v>46</v>
-      </c>
-      <c r="F84">
-        <v>58</v>
-      </c>
-      <c r="G84">
-        <v>65</v>
-      </c>
-      <c r="H84">
-        <v>61</v>
-      </c>
-      <c r="I84" s="1">
-        <v>0</v>
+      <c r="I84" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B85" s="1">
-        <v>996</v>
-      </c>
-      <c r="C85" s="1">
-        <v>91</v>
-      </c>
-      <c r="D85" s="1">
+      <c r="B85" s="3">
+        <v>983</v>
+      </c>
+      <c r="C85" s="3">
+        <v>93</v>
+      </c>
+      <c r="D85" s="3">
         <v>79</v>
       </c>
-      <c r="E85" s="1">
-        <v>80</v>
+      <c r="E85" s="3">
+        <v>77</v>
       </c>
       <c r="F85">
         <v>61</v>
@@ -3626,8 +3618,8 @@
       <c r="H85">
         <v>67</v>
       </c>
-      <c r="I85" s="1">
-        <v>0</v>
+      <c r="I85" s="3">
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3635,16 +3627,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>1263</v>
+        <v>1191</v>
       </c>
       <c r="C86">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D86">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E86">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F86">
         <v>72</v>
@@ -3655,8 +3647,8 @@
       <c r="H86">
         <v>74</v>
       </c>
-      <c r="I86" s="1">
-        <v>0</v>
+      <c r="I86" s="3">
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3664,28 +3656,28 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>1029</v>
+        <v>941</v>
       </c>
       <c r="C87">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D87">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E87">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="F87">
-        <v>103</v>
+        <v>57</v>
       </c>
       <c r="G87">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="H87">
-        <v>91</v>
-      </c>
-      <c r="I87" s="1">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="I87" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3693,28 +3685,28 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>863</v>
+        <v>764</v>
       </c>
       <c r="C88">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D88">
+        <v>58</v>
+      </c>
+      <c r="E88">
+        <v>91</v>
+      </c>
+      <c r="F88">
+        <v>67</v>
+      </c>
+      <c r="G88">
+        <v>67</v>
+      </c>
+      <c r="H88">
+        <v>67</v>
+      </c>
+      <c r="I88" s="3">
         <v>68</v>
-      </c>
-      <c r="E88">
-        <v>98</v>
-      </c>
-      <c r="F88">
-        <v>136</v>
-      </c>
-      <c r="G88">
-        <v>136</v>
-      </c>
-      <c r="H88">
-        <v>137</v>
-      </c>
-      <c r="I88" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3722,28 +3714,28 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>782</v>
+        <v>695</v>
       </c>
       <c r="C89">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D89">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E89">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F89">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="G89">
-        <v>148</v>
+        <v>73</v>
       </c>
       <c r="H89">
-        <v>145</v>
-      </c>
-      <c r="I89" s="1">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="I89" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3751,28 +3743,28 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1081</v>
+        <v>987</v>
       </c>
       <c r="C90">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="D90">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E90">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F90">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="G90">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="H90">
-        <v>106</v>
-      </c>
-      <c r="I90" s="1">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="I90" s="3">
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3780,28 +3772,28 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>1044</v>
+        <v>850</v>
       </c>
       <c r="C91">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D91">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E91">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="F91">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="G91">
-        <v>130</v>
+        <v>67</v>
       </c>
       <c r="H91">
-        <v>136</v>
-      </c>
-      <c r="I91" s="1">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="I91" s="3">
+        <v>68</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3809,28 +3801,28 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>480</v>
+        <v>411</v>
       </c>
       <c r="C92">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D92">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E92">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F92">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="G92">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="H92">
-        <v>81</v>
-      </c>
-      <c r="I92" s="1">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="I92" s="3">
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -3838,57 +3830,57 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>1069</v>
+        <v>1023</v>
       </c>
       <c r="C93">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D93">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E93">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F93">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="G93">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="H93">
-        <v>150</v>
-      </c>
-      <c r="I93" s="1">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="I93" s="3">
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B94" s="1">
-        <v>0</v>
-      </c>
-      <c r="C94" s="1">
-        <v>0</v>
-      </c>
-      <c r="D94" s="1">
-        <v>0</v>
-      </c>
-      <c r="E94" s="1">
-        <v>0</v>
+      <c r="B94" s="3">
+        <v>835</v>
+      </c>
+      <c r="C94" s="3">
+        <v>62</v>
+      </c>
+      <c r="D94" s="3">
+        <v>70</v>
+      </c>
+      <c r="E94" s="3">
+        <v>66</v>
       </c>
       <c r="F94">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="G94">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="H94">
-        <v>84</v>
-      </c>
-      <c r="I94" s="1">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I94" s="3">
+        <v>52</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3896,28 +3888,28 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>138</v>
+        <v>220</v>
       </c>
       <c r="C95">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D95">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E95">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F95">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G95">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H95">
-        <v>80</v>
-      </c>
-      <c r="I95" s="1">
-        <v>0</v>
+        <v>62</v>
+      </c>
+      <c r="I95" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -3925,28 +3917,28 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>740</v>
+        <v>703</v>
       </c>
       <c r="C96">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D96">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="E96">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F96">
-        <v>111</v>
+        <v>62</v>
       </c>
       <c r="G96">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H96">
-        <v>106</v>
-      </c>
-      <c r="I96" s="1">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="I96" s="3">
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3954,28 +3946,28 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>479</v>
+        <v>365</v>
       </c>
       <c r="C97">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D97">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E97">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F97">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G97">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H97">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="I97">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -3983,28 +3975,28 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>1211</v>
+        <v>1079</v>
       </c>
       <c r="C98">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D98">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="E98">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F98">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G98">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H98">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="I98">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -4012,28 +4004,28 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>1195</v>
+        <v>1107</v>
       </c>
       <c r="C99">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D99">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E99">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F99">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G99">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H99">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="I99">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4041,13 +4033,13 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>868</v>
+        <v>805</v>
       </c>
       <c r="C100">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D100">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E100">
         <v>48</v>
@@ -4056,13 +4048,13 @@
         <v>73</v>
       </c>
       <c r="G100">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H100">
         <v>75</v>
       </c>
       <c r="I100">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4070,13 +4062,13 @@
         <v>99</v>
       </c>
       <c r="B101" s="1">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="C101" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D101" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E101" s="1">
         <v>60</v>
@@ -4099,28 +4091,28 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>939</v>
+        <v>903</v>
       </c>
       <c r="C102">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D102">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E102">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F102">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G102">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H102">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I102">
-        <v>67</v>
+        <v>54</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
@@ -4128,28 +4120,28 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>989</v>
+        <v>945</v>
       </c>
       <c r="C103">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D103">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E103">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F103">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G103">
         <v>65</v>
       </c>
       <c r="H103">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I103">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
@@ -4157,28 +4149,28 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>1184</v>
+        <v>1150</v>
       </c>
       <c r="C104">
+        <v>91</v>
+      </c>
+      <c r="D104">
         <v>97</v>
       </c>
-      <c r="D104">
-        <v>103</v>
-      </c>
       <c r="E104">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F104">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G104">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H104">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I104">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
@@ -4186,28 +4178,28 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>1138</v>
+        <v>1079</v>
       </c>
       <c r="C105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E105">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F105">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G105">
         <v>69</v>
       </c>
       <c r="H105">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="I105">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
@@ -4215,28 +4207,28 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>614</v>
+        <v>570</v>
       </c>
       <c r="C106">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D106">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E106">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F106">
+        <v>54</v>
+      </c>
+      <c r="G106">
         <v>55</v>
       </c>
-      <c r="G106">
-        <v>56</v>
-      </c>
       <c r="H106">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I106">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
@@ -4244,28 +4236,28 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>734</v>
+        <v>655</v>
       </c>
       <c r="C107">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D107">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E107">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F107">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G107">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H107">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I107">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
@@ -4273,28 +4265,28 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>609</v>
+        <v>483</v>
       </c>
       <c r="C108">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="D108">
         <v>0</v>
       </c>
       <c r="E108">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F108">
+        <v>48</v>
+      </c>
+      <c r="G108">
         <v>52</v>
       </c>
-      <c r="G108">
-        <v>55</v>
-      </c>
       <c r="H108">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I108">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
@@ -4302,28 +4294,28 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>1215</v>
+        <v>1164</v>
       </c>
       <c r="C109">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D109">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E109">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F109">
         <v>71</v>
       </c>
       <c r="G109">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H109">
         <v>72</v>
       </c>
       <c r="I109">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
@@ -4331,28 +4323,28 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>1068</v>
+        <v>965</v>
       </c>
       <c r="C110">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D110">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E110">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F110">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="G110">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="H110">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I110">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
@@ -4360,45 +4352,45 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>1232</v>
+        <v>1185</v>
       </c>
       <c r="C111">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D111">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E111">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F111">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G111">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H111">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I111">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B112">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="C112">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D112">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E112">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -4415,28 +4407,28 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B113">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="C113">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D113">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E113">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F113">
         <v>58</v>
       </c>
       <c r="G113">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H113">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I113">
         <v>56</v>
@@ -4447,51 +4439,51 @@
         <v>110</v>
       </c>
       <c r="B114">
-        <v>1020</v>
+        <v>805</v>
       </c>
       <c r="C114">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="D114">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E114">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F114">
+        <v>63</v>
+      </c>
+      <c r="G114">
+        <v>57</v>
+      </c>
+      <c r="H114">
         <v>54</v>
       </c>
-      <c r="G114">
-        <v>52</v>
-      </c>
-      <c r="H114">
-        <v>49</v>
-      </c>
       <c r="I114">
-        <v>48</v>
+        <v>60</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B115">
         <v>1092</v>
       </c>
       <c r="C115">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D115">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E115">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F115">
+        <v>72</v>
+      </c>
+      <c r="G115">
         <v>70</v>
-      </c>
-      <c r="G115">
-        <v>71</v>
       </c>
       <c r="H115">
         <v>66</v>
@@ -4502,31 +4494,31 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B116">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C116">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D116">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E116">
+        <v>68</v>
+      </c>
+      <c r="F116">
         <v>70</v>
       </c>
-      <c r="F116">
-        <v>71</v>
-      </c>
       <c r="G116">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H116">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I116">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
@@ -4534,28 +4526,28 @@
         <v>111</v>
       </c>
       <c r="B117">
-        <v>1062</v>
+        <v>812</v>
       </c>
       <c r="C117">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D117">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="E117">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F117">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G117">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H117">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="I117">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
@@ -4563,57 +4555,57 @@
         <v>112</v>
       </c>
       <c r="B118">
-        <v>445</v>
+        <v>342</v>
       </c>
       <c r="C118">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D118">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="E118">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F118">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G118">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H118">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="I118">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B119">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C119">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D119">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E119">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F119">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G119">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H119">
         <v>35</v>
       </c>
       <c r="I119">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
@@ -4621,16 +4613,16 @@
         <v>113</v>
       </c>
       <c r="B120">
-        <v>1025</v>
+        <v>944</v>
       </c>
       <c r="C120">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D120">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E120">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F120">
         <v>65</v>
@@ -4639,152 +4631,152 @@
         <v>62</v>
       </c>
       <c r="H120">
+        <v>57</v>
+      </c>
+      <c r="I120">
         <v>59</v>
-      </c>
-      <c r="I120">
-        <v>60</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="B121">
-        <v>815</v>
+        <v>921</v>
       </c>
       <c r="C121">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="D121">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E121">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F121">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G121">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H121">
-        <v>53</v>
-      </c>
-      <c r="I121">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="I121" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B122">
-        <v>993</v>
+        <v>579</v>
       </c>
       <c r="C122">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="D122">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="E122">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="I122" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="I122" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B123">
-        <v>695</v>
+        <v>1121</v>
       </c>
       <c r="C123">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D123">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="E123">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="I123" s="1">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I123" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B124">
-        <v>1259</v>
+        <v>855</v>
       </c>
       <c r="C124">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="D124">
-        <v>111</v>
+        <v>72</v>
       </c>
       <c r="E124">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="F124">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="G124">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H124">
-        <v>66</v>
-      </c>
-      <c r="I124" s="1">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="I124" s="3">
+        <v>62</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>117</v>
+      <c r="A125" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="B125">
-        <v>992</v>
+        <v>321</v>
       </c>
       <c r="C125">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="D125">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="E125">
-        <v>80</v>
-      </c>
-      <c r="F125">
-        <v>65</v>
-      </c>
-      <c r="G125">
-        <v>64</v>
-      </c>
-      <c r="H125">
-        <v>65</v>
+        <v>45</v>
+      </c>
+      <c r="F125" s="1">
+        <v>0</v>
+      </c>
+      <c r="G125" s="1">
+        <v>0</v>
+      </c>
+      <c r="H125" s="1">
+        <v>0</v>
       </c>
       <c r="I125" s="1">
         <v>0</v>
@@ -4792,19 +4784,19 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B126">
-        <v>524</v>
+        <v>1339</v>
       </c>
       <c r="C126">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="D126">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E126">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="F126" s="1">
         <v>0</v>
@@ -4821,19 +4813,19 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B127">
-        <v>1370</v>
-      </c>
-      <c r="C127">
-        <v>113</v>
-      </c>
-      <c r="D127">
-        <v>116</v>
+        <v>336</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
       </c>
       <c r="E127">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="F127" s="1">
         <v>0</v>
@@ -4850,10 +4842,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B128">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="C128" s="1">
         <v>0</v>
@@ -4862,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F128" s="1">
         <v>0</v>
@@ -4879,10 +4871,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B129">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="C129" s="1">
         <v>0</v>
@@ -4891,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F129" s="1">
         <v>0</v>
@@ -4908,10 +4900,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B130">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="C130" s="1">
         <v>0</v>
@@ -4920,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="E130">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F130" s="1">
         <v>0</v>
@@ -4937,10 +4929,10 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B131">
-        <v>437</v>
+        <v>352</v>
       </c>
       <c r="C131" s="1">
         <v>0</v>
@@ -4949,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="F131" s="1">
         <v>0</v>
@@ -4966,10 +4958,10 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B132">
-        <v>425</v>
+        <v>321</v>
       </c>
       <c r="C132" s="1">
         <v>0</v>
@@ -4978,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F132" s="1">
         <v>0</v>
@@ -4994,812 +4986,812 @@
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>125</v>
+      <c r="A133" t="s">
+        <v>126</v>
       </c>
       <c r="B133">
-        <v>352</v>
-      </c>
-      <c r="C133" s="1">
-        <v>0</v>
-      </c>
-      <c r="D133" s="1">
-        <v>0</v>
+        <v>552</v>
+      </c>
+      <c r="C133">
+        <v>79</v>
+      </c>
+      <c r="D133">
+        <v>65</v>
       </c>
       <c r="E133">
-        <v>87</v>
-      </c>
-      <c r="F133" s="1">
-        <v>0</v>
-      </c>
-      <c r="G133" s="1">
-        <v>0</v>
-      </c>
-      <c r="H133" s="1">
-        <v>0</v>
-      </c>
-      <c r="I133" s="1">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>53</v>
+      </c>
+      <c r="G133">
+        <v>54</v>
+      </c>
+      <c r="H133">
+        <v>49</v>
+      </c>
+      <c r="I133" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B134">
-        <v>682</v>
+        <v>1092</v>
       </c>
       <c r="C134">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D134">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="F134">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G134">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="H134">
-        <v>49</v>
-      </c>
-      <c r="I134" s="1">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I134" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B135">
-        <v>1195</v>
+        <v>1147</v>
       </c>
       <c r="C135">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D135">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E135">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F135">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G135">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H135">
-        <v>66</v>
-      </c>
-      <c r="I135" s="1">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="I135" s="3">
+        <v>72</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>128</v>
+        <v>248</v>
       </c>
       <c r="B136">
-        <v>1237</v>
+        <v>1094</v>
       </c>
       <c r="C136">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="D136">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="E136">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F136">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G136">
         <v>73</v>
       </c>
       <c r="H136">
-        <v>73</v>
-      </c>
-      <c r="I136" s="1">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="I136" s="3">
+        <v>72</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>251</v>
+        <v>129</v>
       </c>
       <c r="B137">
-        <v>1102</v>
+        <v>1226</v>
       </c>
       <c r="C137">
+        <v>98</v>
+      </c>
+      <c r="D137">
+        <v>98</v>
+      </c>
+      <c r="E137">
         <v>97</v>
       </c>
-      <c r="D137">
-        <v>87</v>
-      </c>
-      <c r="E137">
-        <v>91</v>
-      </c>
       <c r="F137">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G137">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H137">
-        <v>71</v>
-      </c>
-      <c r="I137" s="1">
-        <v>72</v>
+        <v>58</v>
+      </c>
+      <c r="I137" s="3">
+        <v>45</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B138">
-        <v>1287</v>
+        <v>915</v>
       </c>
       <c r="C138">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D138">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="E138">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="F138">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G138">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H138">
-        <v>58</v>
-      </c>
-      <c r="I138" s="1">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="I138" s="3">
+        <v>57</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B139">
-        <v>1021</v>
+        <v>1253</v>
       </c>
       <c r="C139">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D139">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="E139">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="F139">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G139">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="H139">
-        <v>49</v>
-      </c>
-      <c r="I139" s="1">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="I139" s="3">
+        <v>67</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B140">
-        <v>1287</v>
+        <v>1149</v>
       </c>
       <c r="C140">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D140">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E140">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="F140">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G140">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="H140">
-        <v>66</v>
-      </c>
-      <c r="I140" s="1">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I140" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B141">
-        <v>1232</v>
+        <v>1350</v>
       </c>
       <c r="C141">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="D141">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E141">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F141">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="G141">
+        <v>70</v>
+      </c>
+      <c r="H141">
         <v>71</v>
       </c>
-      <c r="H141">
-        <v>65</v>
-      </c>
-      <c r="I141" s="1">
-        <v>0</v>
+      <c r="I141" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B142">
-        <v>1378</v>
+        <v>1018</v>
       </c>
       <c r="C142">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="D142">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="E142">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="F142">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G142">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="H142">
-        <v>72</v>
-      </c>
-      <c r="I142" s="1">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="I142" s="3">
+        <v>47</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B143">
-        <v>1124</v>
+        <v>1275</v>
       </c>
       <c r="C143">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="D143">
+        <v>106</v>
+      </c>
+      <c r="E143">
         <v>103</v>
       </c>
-      <c r="E143">
-        <v>94</v>
-      </c>
       <c r="F143">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="G143">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H143">
-        <v>47</v>
-      </c>
-      <c r="I143" s="1">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="I143" s="3">
+        <v>73</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B144">
-        <v>1331</v>
+        <v>392</v>
       </c>
       <c r="C144">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="D144">
-        <v>113</v>
+        <v>32</v>
       </c>
       <c r="E144">
-        <v>104</v>
+        <v>27</v>
       </c>
       <c r="F144">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="G144">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="H144">
-        <v>73</v>
-      </c>
-      <c r="I144" s="1">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="I144" s="3">
+        <v>27</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B145">
-        <v>630</v>
+        <v>460</v>
       </c>
       <c r="C145">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="D145">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="E145">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F145">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="G145">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H145">
-        <v>28</v>
-      </c>
-      <c r="I145" s="1">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="I145" s="3">
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B146">
-        <v>585</v>
+        <v>766</v>
       </c>
       <c r="C146">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D146">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E146">
+        <v>71</v>
+      </c>
+      <c r="F146">
+        <v>65</v>
+      </c>
+      <c r="G146">
+        <v>69</v>
+      </c>
+      <c r="H146">
         <v>61</v>
       </c>
-      <c r="F146">
-        <v>15</v>
-      </c>
-      <c r="G146">
-        <v>16</v>
-      </c>
-      <c r="H146">
-        <v>12</v>
-      </c>
-      <c r="I146" s="1">
-        <v>0</v>
+      <c r="I146" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B147">
-        <v>951</v>
+        <v>813</v>
       </c>
       <c r="C147">
+        <v>68</v>
+      </c>
+      <c r="D147">
+        <v>73</v>
+      </c>
+      <c r="E147">
+        <v>59</v>
+      </c>
+      <c r="F147">
+        <v>72</v>
+      </c>
+      <c r="G147">
+        <v>69</v>
+      </c>
+      <c r="H147">
         <v>70</v>
       </c>
-      <c r="D147">
-        <v>81</v>
-      </c>
-      <c r="E147">
-        <v>88</v>
-      </c>
-      <c r="F147">
-        <v>64</v>
-      </c>
-      <c r="G147">
-        <v>68</v>
-      </c>
-      <c r="H147">
-        <v>61</v>
-      </c>
-      <c r="I147" s="1">
-        <v>0</v>
+      <c r="I147" s="3">
+        <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>139</v>
-      </c>
-      <c r="B148">
-        <v>1057</v>
-      </c>
-      <c r="C148">
-        <v>96</v>
-      </c>
-      <c r="D148">
-        <v>86</v>
-      </c>
-      <c r="E148">
-        <v>81</v>
+        <v>249</v>
+      </c>
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>0</v>
       </c>
       <c r="F148">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="G148">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="H148">
-        <v>68</v>
-      </c>
-      <c r="I148" s="1">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="I148" s="3">
+        <v>64</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>252</v>
-      </c>
-      <c r="B149" s="1">
-        <v>0</v>
-      </c>
-      <c r="C149" s="1">
-        <v>0</v>
-      </c>
-      <c r="D149" s="1">
-        <v>0</v>
-      </c>
-      <c r="E149" s="1">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="B149">
+        <v>1149</v>
+      </c>
+      <c r="C149">
+        <v>97</v>
+      </c>
+      <c r="D149">
+        <v>94</v>
+      </c>
+      <c r="E149">
+        <v>83</v>
       </c>
       <c r="F149">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G149">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H149">
-        <v>61</v>
-      </c>
-      <c r="I149" s="1">
-        <v>67</v>
+        <v>50</v>
+      </c>
+      <c r="I149" s="3">
+        <v>55</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B150">
-        <v>1256</v>
+        <v>1069</v>
       </c>
       <c r="C150">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="D150">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E150">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F150">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="G150">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="H150">
-        <v>53</v>
-      </c>
-      <c r="I150" s="1">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="I150" s="3">
+        <v>73</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B151">
-        <v>1243</v>
+        <v>1186</v>
       </c>
       <c r="C151">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D151">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E151">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="F151">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="G151">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="H151">
-        <v>74</v>
-      </c>
-      <c r="I151" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="I151" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B152">
-        <v>1293</v>
+        <v>1177</v>
       </c>
       <c r="C152">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D152">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E152">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F152">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="G152">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="H152">
-        <v>52</v>
-      </c>
-      <c r="I152" s="1">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="I152" s="3">
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B153">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C153">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D153">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="E153">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="F153">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G153">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H153">
-        <v>67</v>
-      </c>
-      <c r="I153" s="1">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="I153" s="3">
+        <v>70</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B154">
-        <v>1368</v>
+        <v>1221</v>
       </c>
       <c r="C154">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D154">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="E154">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="F154">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G154">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H154">
-        <v>70</v>
-      </c>
-      <c r="I154" s="1">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="I154" s="3">
+        <v>74</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B155">
-        <v>1265</v>
+        <v>1182</v>
       </c>
       <c r="C155">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D155">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E155">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="F155">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G155">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H155">
         <v>73</v>
       </c>
-      <c r="I155" s="1">
-        <v>0</v>
+      <c r="I155" s="3">
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B156">
-        <v>1258</v>
+        <v>1212</v>
       </c>
       <c r="C156">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D156">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E156">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F156">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G156">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="H156">
-        <v>73</v>
-      </c>
-      <c r="I156" s="1">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="I156" s="3">
+        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B157">
-        <v>1290</v>
+        <v>869</v>
       </c>
       <c r="C157">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="D157">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="E157">
-        <v>106</v>
-      </c>
-      <c r="F157">
-        <v>69</v>
-      </c>
-      <c r="G157">
-        <v>58</v>
-      </c>
-      <c r="H157">
-        <v>59</v>
-      </c>
-      <c r="I157" s="1">
+        <v>75</v>
+      </c>
+      <c r="F157" s="1">
+        <v>0</v>
+      </c>
+      <c r="G157" s="1">
+        <v>0</v>
+      </c>
+      <c r="H157" s="1">
+        <v>0</v>
+      </c>
+      <c r="I157" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B158">
-        <v>991</v>
+        <v>916</v>
       </c>
       <c r="C158">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D158">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="E158">
-        <v>89</v>
-      </c>
-      <c r="F158" s="1">
-        <v>0</v>
-      </c>
-      <c r="G158" s="1">
-        <v>0</v>
-      </c>
-      <c r="H158" s="1">
-        <v>0</v>
-      </c>
-      <c r="I158" s="1">
-        <v>0</v>
+        <v>80</v>
+      </c>
+      <c r="F158">
+        <v>35</v>
+      </c>
+      <c r="G158">
+        <v>35</v>
+      </c>
+      <c r="H158">
+        <v>39</v>
+      </c>
+      <c r="I158" s="3">
+        <v>43</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B159">
-        <v>1063</v>
+        <v>512</v>
       </c>
       <c r="C159">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="D159">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="E159">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F159">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="G159">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="H159">
-        <v>37</v>
-      </c>
-      <c r="I159" s="1">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="I159" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B160">
-        <v>753</v>
+        <v>794</v>
       </c>
       <c r="C160">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="D160">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E160">
-        <v>72</v>
-      </c>
-      <c r="F160">
-        <v>6</v>
-      </c>
-      <c r="G160">
-        <v>15</v>
-      </c>
-      <c r="H160">
-        <v>12</v>
+        <v>74</v>
+      </c>
+      <c r="F160" s="1">
+        <v>0</v>
+      </c>
+      <c r="G160" s="1">
+        <v>0</v>
+      </c>
+      <c r="H160" s="1">
+        <v>0</v>
       </c>
       <c r="I160" s="1">
         <v>0</v>
@@ -5807,19 +5799,19 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B161">
-        <v>909</v>
+        <v>495</v>
       </c>
       <c r="C161">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D161">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E161">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F161" s="1">
         <v>0</v>
@@ -5836,19 +5828,19 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B162">
-        <v>476</v>
+        <v>1167</v>
       </c>
       <c r="C162">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D162">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="E162">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="F162" s="1">
         <v>0</v>
@@ -5865,19 +5857,19 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B163">
-        <v>1214</v>
+        <v>1168</v>
       </c>
       <c r="C163">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D163">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E163">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F163" s="1">
         <v>0</v>
@@ -5894,19 +5886,19 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B164">
-        <v>1239</v>
+        <v>624</v>
       </c>
       <c r="C164">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="D164">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E164">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="F164" s="1">
         <v>0</v>
@@ -5923,19 +5915,19 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B165">
-        <v>800</v>
+        <v>1188</v>
       </c>
       <c r="C165">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="D165">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="E165">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="F165" s="1">
         <v>0</v>
@@ -5952,19 +5944,19 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B166">
-        <v>1260</v>
+        <v>1035</v>
       </c>
       <c r="C166">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="D166">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E166">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F166" s="1">
         <v>0</v>
@@ -5981,19 +5973,19 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B167">
-        <v>1114</v>
+        <v>1042</v>
       </c>
       <c r="C167">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D167">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E167">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F167" s="1">
         <v>0</v>
@@ -6010,19 +6002,19 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B168">
-        <v>1179</v>
+        <v>466</v>
       </c>
       <c r="C168">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="D168">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="E168">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="F168" s="1">
         <v>0</v>
@@ -6039,19 +6031,19 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B169">
-        <v>974</v>
+        <v>459</v>
       </c>
       <c r="C169">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="D169">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="E169">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F169" s="1">
         <v>0</v>
@@ -6068,19 +6060,19 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B170">
-        <v>605</v>
+        <v>1080</v>
       </c>
       <c r="C170">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D170">
-        <v>43</v>
+        <v>95</v>
       </c>
       <c r="E170">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F170" s="1">
         <v>0</v>
@@ -6097,19 +6089,19 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B171">
-        <v>1130</v>
+        <v>141</v>
       </c>
       <c r="C171">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="D171">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="E171">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F171" s="1">
         <v>0</v>
@@ -6125,66 +6117,66 @@
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>162</v>
-      </c>
-      <c r="B172">
-        <v>204</v>
-      </c>
-      <c r="C172">
-        <v>23</v>
-      </c>
-      <c r="D172">
-        <v>14</v>
-      </c>
-      <c r="E172">
-        <v>20</v>
-      </c>
-      <c r="F172" s="1">
-        <v>0</v>
-      </c>
-      <c r="G172" s="1">
-        <v>0</v>
-      </c>
-      <c r="H172" s="1">
-        <v>0</v>
-      </c>
-      <c r="I172" s="1">
-        <v>0</v>
-      </c>
+      <c r="A172" s="2"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
+      <c r="A173" t="s">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>364</v>
+      </c>
+      <c r="C173">
+        <v>43</v>
+      </c>
+      <c r="D173">
+        <v>45</v>
+      </c>
+      <c r="E173">
+        <v>43</v>
+      </c>
+      <c r="F173">
+        <v>218</v>
+      </c>
+      <c r="G173">
+        <v>201</v>
+      </c>
+      <c r="H173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B174">
-        <v>602</v>
+        <v>1974</v>
       </c>
       <c r="C174">
-        <v>84</v>
+        <v>287</v>
       </c>
       <c r="D174">
-        <v>95</v>
+        <v>292</v>
       </c>
       <c r="E174">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="F174">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="G174">
-        <v>207</v>
+        <v>282</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -6195,25 +6187,25 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B175">
-        <v>1982</v>
+        <v>1199</v>
       </c>
       <c r="C175">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="D175">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="E175">
-        <v>291</v>
+        <v>185</v>
       </c>
       <c r="F175">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="G175">
-        <v>289</v>
+        <v>216</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -6224,25 +6216,25 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B176">
-        <v>1311</v>
+        <v>1705</v>
       </c>
       <c r="C176">
-        <v>196</v>
+        <v>247</v>
       </c>
       <c r="D176">
-        <v>156</v>
+        <v>199</v>
       </c>
       <c r="E176">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="F176">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="G176">
-        <v>193</v>
+        <v>232</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -6253,25 +6245,25 @@
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B177">
-        <v>1828</v>
+        <v>710</v>
       </c>
       <c r="C177">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="D177">
+        <v>92</v>
+      </c>
+      <c r="E177">
+        <v>118</v>
+      </c>
+      <c r="F177">
+        <v>238</v>
+      </c>
+      <c r="G177">
         <v>209</v>
-      </c>
-      <c r="E177">
-        <v>282</v>
-      </c>
-      <c r="F177">
-        <v>239</v>
-      </c>
-      <c r="G177">
-        <v>240</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -6282,25 +6274,25 @@
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B178">
-        <v>764</v>
+        <v>293</v>
       </c>
       <c r="C178">
-        <v>148</v>
+        <v>55</v>
       </c>
       <c r="D178">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="E178">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="F178">
-        <v>248</v>
+        <v>115</v>
       </c>
       <c r="G178">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -6311,25 +6303,25 @@
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B179">
-        <v>1816</v>
+        <v>2916</v>
       </c>
       <c r="C179">
-        <v>276</v>
+        <v>448</v>
       </c>
       <c r="D179">
-        <v>205</v>
+        <v>404</v>
       </c>
       <c r="E179">
-        <v>270</v>
+        <v>420</v>
       </c>
       <c r="F179">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G179">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -6340,25 +6332,25 @@
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B180">
-        <v>333</v>
+        <v>906</v>
       </c>
       <c r="C180">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="D180">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E180">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F180">
-        <v>122</v>
+        <v>217</v>
       </c>
       <c r="G180">
-        <v>113</v>
+        <v>244</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -6369,25 +6361,25 @@
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B181">
-        <v>3720</v>
+        <v>1514</v>
       </c>
       <c r="C181">
-        <v>546</v>
+        <v>224</v>
       </c>
       <c r="D181">
-        <v>542</v>
+        <v>236</v>
       </c>
       <c r="E181">
-        <v>536</v>
+        <v>229</v>
       </c>
       <c r="F181">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="G181">
-        <v>287</v>
+        <v>225</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -6398,25 +6390,25 @@
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B182">
-        <v>665</v>
+        <v>130</v>
       </c>
       <c r="C182">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D182">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E182">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F182">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="G182">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -6427,25 +6419,25 @@
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B183">
-        <v>1556</v>
+        <v>1173</v>
       </c>
       <c r="C183">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D183">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="E183">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="F183">
-        <v>256</v>
+        <v>154</v>
       </c>
       <c r="G183">
-        <v>236</v>
+        <v>165</v>
       </c>
       <c r="H183">
         <v>0</v>
@@ -6456,25 +6448,25 @@
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B184">
-        <v>171</v>
+        <v>1241</v>
       </c>
       <c r="C184">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="D184">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="E184">
-        <v>17</v>
+        <v>195</v>
       </c>
       <c r="F184">
-        <v>38</v>
+        <v>288</v>
       </c>
       <c r="G184">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -6485,25 +6477,25 @@
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B185">
-        <v>1703</v>
+        <v>1132</v>
       </c>
       <c r="C185">
-        <v>246</v>
+        <v>161</v>
       </c>
       <c r="D185">
-        <v>220</v>
+        <v>135</v>
       </c>
       <c r="E185">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="F185">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="G185">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -6514,25 +6506,25 @@
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B186">
-        <v>1540</v>
+        <v>1062</v>
       </c>
       <c r="C186">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="D186">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E186">
-        <v>222</v>
+        <v>175</v>
       </c>
       <c r="F186">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="G186">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -6543,25 +6535,25 @@
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B187">
-        <v>1533</v>
+        <v>544</v>
       </c>
       <c r="C187">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="D187">
-        <v>214</v>
+        <v>92</v>
       </c>
       <c r="E187">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="F187">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="G187">
-        <v>236</v>
+        <v>69</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -6572,25 +6564,25 @@
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B188">
-        <v>1103</v>
+        <v>710</v>
       </c>
       <c r="C188">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="D188">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="E188">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="F188">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="G188">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -6601,25 +6593,25 @@
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B189">
-        <v>830</v>
+        <v>806</v>
       </c>
       <c r="C189">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D189">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="E189">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="F189">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G189">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -6630,25 +6622,25 @@
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B190">
-        <v>1078</v>
+        <v>203</v>
       </c>
       <c r="C190">
-        <v>208</v>
+        <v>33</v>
       </c>
       <c r="D190">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="E190">
-        <v>184</v>
+        <v>39</v>
       </c>
       <c r="F190">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="G190">
-        <v>158</v>
+        <v>65</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -6659,25 +6651,25 @@
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B191">
-        <v>871</v>
+        <v>443</v>
       </c>
       <c r="C191">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D191">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="E191">
-        <v>140</v>
+        <v>76</v>
       </c>
       <c r="F191">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G191">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -6688,25 +6680,25 @@
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B192">
-        <v>374</v>
+        <v>560</v>
       </c>
       <c r="C192">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="D192">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="E192">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="F192">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="G192">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -6717,25 +6709,25 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B193">
-        <v>607</v>
+        <v>1031</v>
       </c>
       <c r="C193">
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="D193">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="E193">
-        <v>95</v>
+        <v>152</v>
       </c>
       <c r="F193">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="G193">
-        <v>89</v>
+        <v>211</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -6746,25 +6738,25 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B194">
-        <v>342</v>
+        <v>1842</v>
       </c>
       <c r="C194">
-        <v>54</v>
+        <v>262</v>
       </c>
       <c r="D194">
-        <v>75</v>
+        <v>263</v>
       </c>
       <c r="E194">
-        <v>53</v>
+        <v>260</v>
       </c>
       <c r="F194">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="G194">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -6775,25 +6767,25 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B195">
-        <v>1699</v>
+        <v>923</v>
       </c>
       <c r="C195">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="D195">
-        <v>196</v>
+        <v>130</v>
       </c>
       <c r="E195">
-        <v>252</v>
+        <v>140</v>
       </c>
       <c r="F195">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="G195">
-        <v>278</v>
+        <v>136</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -6804,25 +6796,25 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B196">
-        <v>1922</v>
+        <v>1649</v>
       </c>
       <c r="C196">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="D196">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="E196">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="F196">
-        <v>299</v>
+        <v>237</v>
       </c>
       <c r="G196">
-        <v>298</v>
+        <v>232</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -6833,112 +6825,112 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B197">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="C197">
+        <v>149</v>
+      </c>
+      <c r="D197">
+        <v>95</v>
+      </c>
+      <c r="E197">
+        <v>176</v>
+      </c>
+      <c r="F197">
+        <v>191</v>
+      </c>
+      <c r="G197">
+        <v>210</v>
+      </c>
+      <c r="H197">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B198" s="1">
+        <v>90</v>
+      </c>
+      <c r="C198" s="1">
+        <v>10</v>
+      </c>
+      <c r="D198" s="1">
+        <v>9</v>
+      </c>
+      <c r="E198" s="1">
+        <v>9</v>
+      </c>
+      <c r="F198">
+        <v>61</v>
+      </c>
+      <c r="G198">
+        <v>82</v>
+      </c>
+      <c r="H198">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B199" s="1">
+        <v>0</v>
+      </c>
+      <c r="C199" s="1">
+        <v>0</v>
+      </c>
+      <c r="D199" s="1">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1">
+        <v>0</v>
+      </c>
+      <c r="F199" s="1">
+        <v>0</v>
+      </c>
+      <c r="G199" s="1">
+        <v>0</v>
+      </c>
+      <c r="H199" s="1">
+        <v>0</v>
+      </c>
+      <c r="I199" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>789</v>
+      </c>
+      <c r="C200">
+        <v>114</v>
+      </c>
+      <c r="D200">
+        <v>107</v>
+      </c>
+      <c r="E200">
+        <v>120</v>
+      </c>
+      <c r="F200">
         <v>164</v>
       </c>
-      <c r="D197">
-        <v>154</v>
-      </c>
-      <c r="E197">
-        <v>151</v>
-      </c>
-      <c r="F197">
-        <v>184</v>
-      </c>
-      <c r="G197">
-        <v>183</v>
-      </c>
-      <c r="H197">
-        <v>0</v>
-      </c>
-      <c r="I197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>196</v>
-      </c>
-      <c r="B198">
-        <v>1772</v>
-      </c>
-      <c r="C198">
-        <v>264</v>
-      </c>
-      <c r="D198">
-        <v>269</v>
-      </c>
-      <c r="E198">
-        <v>256</v>
-      </c>
-      <c r="F198">
-        <v>248</v>
-      </c>
-      <c r="G198">
-        <v>244</v>
-      </c>
-      <c r="H198">
-        <v>0</v>
-      </c>
-      <c r="I198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>197</v>
-      </c>
-      <c r="B199">
-        <v>1303</v>
-      </c>
-      <c r="C199">
-        <v>165</v>
-      </c>
-      <c r="D199">
-        <v>117</v>
-      </c>
-      <c r="E199">
-        <v>193</v>
-      </c>
-      <c r="F199">
-        <v>205</v>
-      </c>
-      <c r="G199">
-        <v>233</v>
-      </c>
-      <c r="H199">
-        <v>0</v>
-      </c>
-      <c r="I199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B200" s="1">
-        <v>54</v>
-      </c>
-      <c r="C200" s="1">
-        <v>12</v>
-      </c>
-      <c r="D200" s="1">
-        <v>8</v>
-      </c>
-      <c r="E200" s="1">
-        <v>8</v>
-      </c>
-      <c r="F200">
-        <v>38</v>
-      </c>
       <c r="G200">
-        <v>64</v>
+        <v>175</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -6948,55 +6940,55 @@
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B201" s="1">
-        <v>0</v>
-      </c>
-      <c r="C201" s="1">
-        <v>0</v>
-      </c>
-      <c r="D201" s="1">
-        <v>0</v>
-      </c>
-      <c r="E201" s="1">
-        <v>0</v>
-      </c>
-      <c r="F201" s="1">
-        <v>0</v>
-      </c>
-      <c r="G201" s="1">
-        <v>0</v>
-      </c>
-      <c r="H201" s="1">
-        <v>0</v>
-      </c>
-      <c r="I201" s="1">
+      <c r="A201" t="s">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>1235</v>
+      </c>
+      <c r="C201">
+        <v>137</v>
+      </c>
+      <c r="D201">
+        <v>108</v>
+      </c>
+      <c r="E201">
+        <v>123</v>
+      </c>
+      <c r="F201">
+        <v>227</v>
+      </c>
+      <c r="G201">
+        <v>224</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
         <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B202">
-        <v>930</v>
+        <v>1342</v>
       </c>
       <c r="C202">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="D202">
-        <v>121</v>
+        <v>180</v>
       </c>
       <c r="E202">
-        <v>144</v>
+        <v>195</v>
       </c>
       <c r="F202">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G202">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -7007,83 +6999,83 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B203">
-        <v>1270</v>
+        <v>1924</v>
       </c>
       <c r="C203">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="D203">
-        <v>101</v>
+        <v>277</v>
       </c>
       <c r="E203">
-        <v>120</v>
+        <v>277</v>
       </c>
       <c r="F203">
-        <v>222</v>
+        <v>292</v>
       </c>
       <c r="G203">
+        <v>283</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="H203">
-        <v>0</v>
-      </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B204" s="1">
-        <v>0</v>
-      </c>
-      <c r="C204" s="1">
-        <v>0</v>
-      </c>
-      <c r="D204" s="1">
-        <v>0</v>
-      </c>
-      <c r="E204" s="1">
-        <v>0</v>
-      </c>
-      <c r="F204" s="1">
-        <v>18</v>
-      </c>
-      <c r="G204" s="1">
-        <v>17</v>
-      </c>
-      <c r="H204" s="1">
-        <v>0</v>
-      </c>
-      <c r="I204" s="1">
+      <c r="B204">
+        <v>397</v>
+      </c>
+      <c r="C204">
+        <v>58</v>
+      </c>
+      <c r="D204">
+        <v>62</v>
+      </c>
+      <c r="E204">
+        <v>54</v>
+      </c>
+      <c r="F204">
+        <v>113</v>
+      </c>
+      <c r="G204">
+        <v>134</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204">
         <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B205">
-        <v>1858</v>
+        <v>1423</v>
       </c>
       <c r="C205">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="D205">
-        <v>259</v>
+        <v>215</v>
       </c>
       <c r="E205">
-        <v>269</v>
+        <v>201</v>
       </c>
       <c r="F205">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G205">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -7094,25 +7086,25 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B206">
-        <v>1938</v>
+        <v>1398</v>
       </c>
       <c r="C206">
-        <v>285</v>
+        <v>120</v>
       </c>
       <c r="D206">
-        <v>275</v>
+        <v>46</v>
       </c>
       <c r="E206">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="F206">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="G206">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -7123,25 +7115,25 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B207">
-        <v>661</v>
+        <v>348</v>
       </c>
       <c r="C207">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D207">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="E207">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="F207">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G207">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -7151,26 +7143,26 @@
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>206</v>
+      <c r="A208" s="1" t="s">
+        <v>207</v>
       </c>
       <c r="B208">
-        <v>1742</v>
+        <v>373</v>
       </c>
       <c r="C208">
-        <v>260</v>
+        <v>35</v>
       </c>
       <c r="D208">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="E208">
-        <v>252</v>
-      </c>
-      <c r="F208">
-        <v>277</v>
-      </c>
-      <c r="G208">
-        <v>270</v>
+        <v>40</v>
+      </c>
+      <c r="F208" s="1">
+        <v>0</v>
+      </c>
+      <c r="G208" s="1">
+        <v>0</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -7181,25 +7173,25 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B209">
-        <v>1355</v>
+        <v>600</v>
       </c>
       <c r="C209">
         <v>97</v>
       </c>
       <c r="D209">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E209">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="F209">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="G209">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -7210,25 +7202,25 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B210">
-        <v>461</v>
+        <v>1070</v>
       </c>
       <c r="C210">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="D210">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="E210">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="F210">
-        <v>155</v>
+        <v>217</v>
       </c>
       <c r="G210">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -7238,26 +7230,26 @@
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
-        <v>209</v>
+      <c r="A211" t="s">
+        <v>210</v>
       </c>
       <c r="B211">
-        <v>602</v>
+        <v>283</v>
       </c>
       <c r="C211">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D211">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="E211">
-        <v>64</v>
-      </c>
-      <c r="F211" s="1">
-        <v>0</v>
-      </c>
-      <c r="G211" s="1">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="F211">
+        <v>144</v>
+      </c>
+      <c r="G211">
+        <v>164</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -7268,25 +7260,25 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B212">
-        <v>647</v>
+        <v>945</v>
       </c>
       <c r="C212">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="D212">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="E212">
-        <v>93</v>
+        <v>146</v>
       </c>
       <c r="F212">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="G212">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -7297,25 +7289,25 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B213">
-        <v>1344</v>
+        <v>825</v>
       </c>
       <c r="C213">
-        <v>208</v>
+        <v>114</v>
       </c>
       <c r="D213">
-        <v>184</v>
+        <v>122</v>
       </c>
       <c r="E213">
-        <v>218</v>
+        <v>122</v>
       </c>
       <c r="F213">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G213">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -7326,25 +7318,25 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B214">
-        <v>318</v>
+        <v>1359</v>
       </c>
       <c r="C214">
-        <v>51</v>
+        <v>257</v>
       </c>
       <c r="D214">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="E214">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="F214">
-        <v>133</v>
+        <v>290</v>
       </c>
       <c r="G214">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -7355,25 +7347,25 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B215">
-        <v>1010</v>
+        <v>97</v>
       </c>
       <c r="C215">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="D215">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="E215">
-        <v>154</v>
+        <v>16</v>
       </c>
       <c r="F215">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="G215">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -7384,25 +7376,25 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B216">
-        <v>889</v>
+        <v>1723</v>
       </c>
       <c r="C216">
-        <v>124</v>
+        <v>253</v>
       </c>
       <c r="D216">
-        <v>144</v>
+        <v>229</v>
       </c>
       <c r="E216">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="F216">
-        <v>181</v>
+        <v>222</v>
       </c>
       <c r="G216">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -7412,55 +7404,55 @@
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>215</v>
-      </c>
-      <c r="B217">
-        <v>1261</v>
-      </c>
-      <c r="C217">
-        <v>217</v>
-      </c>
-      <c r="D217">
-        <v>198</v>
-      </c>
-      <c r="E217">
-        <v>259</v>
-      </c>
-      <c r="F217">
-        <v>276</v>
-      </c>
-      <c r="G217">
-        <v>184</v>
-      </c>
-      <c r="H217">
-        <v>0</v>
-      </c>
-      <c r="I217">
+      <c r="A217" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B217" s="1">
+        <v>0</v>
+      </c>
+      <c r="C217" s="1">
+        <v>0</v>
+      </c>
+      <c r="D217" s="1">
+        <v>0</v>
+      </c>
+      <c r="E217" s="1">
+        <v>0</v>
+      </c>
+      <c r="F217" s="1">
+        <v>0</v>
+      </c>
+      <c r="G217" s="1">
+        <v>0</v>
+      </c>
+      <c r="H217" s="1">
+        <v>0</v>
+      </c>
+      <c r="I217" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B218">
-        <v>443</v>
+        <v>1694</v>
       </c>
       <c r="C218">
-        <v>69</v>
+        <v>250</v>
       </c>
       <c r="D218">
-        <v>48</v>
+        <v>226</v>
       </c>
       <c r="E218">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="F218">
-        <v>231</v>
+        <v>287</v>
       </c>
       <c r="G218">
-        <v>237</v>
+        <v>269</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -7471,25 +7463,25 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B219">
-        <v>1906</v>
+        <v>591</v>
       </c>
       <c r="C219">
-        <v>268</v>
+        <v>85</v>
       </c>
       <c r="D219">
-        <v>264</v>
+        <v>87</v>
       </c>
       <c r="E219">
-        <v>275</v>
+        <v>99</v>
       </c>
       <c r="F219">
-        <v>257</v>
+        <v>95</v>
       </c>
       <c r="G219">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -7499,55 +7491,55 @@
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B220" s="1">
-        <v>1</v>
-      </c>
-      <c r="C220" s="1">
-        <v>0</v>
-      </c>
-      <c r="D220" s="1">
-        <v>0</v>
-      </c>
-      <c r="E220" s="1">
-        <v>0</v>
-      </c>
-      <c r="F220" s="1">
-        <v>6</v>
-      </c>
-      <c r="G220" s="1">
-        <v>6</v>
-      </c>
-      <c r="H220" s="1">
-        <v>0</v>
-      </c>
-      <c r="I220" s="1">
+      <c r="A220" t="s">
+        <v>219</v>
+      </c>
+      <c r="B220">
+        <v>574</v>
+      </c>
+      <c r="C220">
+        <v>115</v>
+      </c>
+      <c r="D220">
+        <v>105</v>
+      </c>
+      <c r="E220">
+        <v>125</v>
+      </c>
+      <c r="F220">
+        <v>219</v>
+      </c>
+      <c r="G220">
+        <v>201</v>
+      </c>
+      <c r="H220">
+        <v>0</v>
+      </c>
+      <c r="I220">
         <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B221">
-        <v>1729</v>
+        <v>1263</v>
       </c>
       <c r="C221">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="D221">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="E221">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="F221">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="G221">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -7558,25 +7550,25 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B222">
-        <v>672</v>
+        <v>1574</v>
       </c>
       <c r="C222">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="D222">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="E222">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="F222">
-        <v>96</v>
+        <v>268</v>
       </c>
       <c r="G222">
-        <v>114</v>
+        <v>257</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -7587,25 +7579,25 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B223">
-        <v>738</v>
+        <v>76</v>
       </c>
       <c r="C223">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="D223">
-        <v>140</v>
+        <v>9</v>
       </c>
       <c r="E223">
-        <v>137</v>
+        <v>7</v>
       </c>
       <c r="F223">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="G223">
-        <v>198</v>
+        <v>73</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -7616,25 +7608,25 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224">
+        <v>849</v>
+      </c>
+      <c r="C224">
+        <v>159</v>
+      </c>
+      <c r="D224">
+        <v>116</v>
+      </c>
+      <c r="E224">
+        <v>132</v>
+      </c>
+      <c r="F224">
+        <v>209</v>
+      </c>
+      <c r="G224">
         <v>222</v>
-      </c>
-      <c r="B224">
-        <v>1566</v>
-      </c>
-      <c r="C224">
-        <v>233</v>
-      </c>
-      <c r="D224">
-        <v>225</v>
-      </c>
-      <c r="E224">
-        <v>229</v>
-      </c>
-      <c r="F224">
-        <v>258</v>
-      </c>
-      <c r="G224">
-        <v>259</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -7645,25 +7637,25 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B225">
-        <v>1737</v>
+        <v>627</v>
       </c>
       <c r="C225">
-        <v>252</v>
+        <v>117</v>
       </c>
       <c r="D225">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="E225">
-        <v>257</v>
+        <v>117</v>
       </c>
       <c r="F225">
-        <v>277</v>
+        <v>194</v>
       </c>
       <c r="G225">
-        <v>275</v>
+        <v>176</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -7674,25 +7666,25 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B226">
-        <v>176</v>
+        <v>393</v>
       </c>
       <c r="C226">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="D226">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="E226">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F226">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="G226">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -7703,25 +7695,25 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B227">
-        <v>1160</v>
+        <v>1349</v>
       </c>
       <c r="C227">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D227">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="E227">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="F227">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G227">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -7732,25 +7724,25 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B228">
-        <v>695</v>
+        <v>1205</v>
       </c>
       <c r="C228">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="D228">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E228">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="F228">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="G228">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -7761,25 +7753,25 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229">
-        <v>576</v>
+        <v>1299</v>
       </c>
       <c r="C229">
-        <v>101</v>
+        <v>195</v>
       </c>
       <c r="D229">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="E229">
-        <v>98</v>
+        <v>195</v>
       </c>
       <c r="F229">
-        <v>157</v>
+        <v>236</v>
       </c>
       <c r="G229">
-        <v>126</v>
+        <v>242</v>
       </c>
       <c r="H229">
         <v>0</v>
@@ -7790,25 +7782,25 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B230">
-        <v>1360</v>
+        <v>1153</v>
       </c>
       <c r="C230">
-        <v>224</v>
+        <v>174</v>
       </c>
       <c r="D230">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c r="E230">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="F230">
-        <v>259</v>
+        <v>188</v>
       </c>
       <c r="G230">
-        <v>252</v>
+        <v>189</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -7819,25 +7811,25 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B231">
-        <v>1441</v>
+        <v>1421</v>
       </c>
       <c r="C231">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="D231">
-        <v>135</v>
+        <v>223</v>
       </c>
       <c r="E231">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F231">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="G231">
-        <v>152</v>
+        <v>233</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -7848,25 +7840,25 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B232">
-        <v>1295</v>
+        <v>1151</v>
       </c>
       <c r="C232">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="D232">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="E232">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F232">
-        <v>114</v>
+        <v>198</v>
       </c>
       <c r="G232">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -7877,25 +7869,25 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B233">
-        <v>1203</v>
+        <v>1311</v>
       </c>
       <c r="C233">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D233">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="E233">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F233">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="G233">
-        <v>211</v>
+        <v>256</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -7906,25 +7898,25 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B234">
-        <v>1646</v>
+        <v>529</v>
       </c>
       <c r="C234">
-        <v>255</v>
+        <v>86</v>
       </c>
       <c r="D234">
-        <v>248</v>
+        <v>61</v>
       </c>
       <c r="E234">
-        <v>253</v>
+        <v>83</v>
       </c>
       <c r="F234">
-        <v>276</v>
+        <v>198</v>
       </c>
       <c r="G234">
-        <v>281</v>
+        <v>218</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -7935,25 +7927,25 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B235">
-        <v>1314</v>
+        <v>1273</v>
       </c>
       <c r="C235">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D235">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="E235">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="F235">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="G235">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -7963,55 +7955,55 @@
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>234</v>
-      </c>
-      <c r="B236">
-        <v>1488</v>
-      </c>
-      <c r="C236">
-        <v>230</v>
-      </c>
-      <c r="D236">
-        <v>215</v>
-      </c>
-      <c r="E236">
-        <v>219</v>
-      </c>
-      <c r="F236">
-        <v>272</v>
-      </c>
-      <c r="G236">
-        <v>277</v>
-      </c>
-      <c r="H236">
-        <v>0</v>
-      </c>
-      <c r="I236">
+      <c r="A236" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B236" s="1">
+        <v>25</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1</v>
+      </c>
+      <c r="D236" s="1">
+        <v>2</v>
+      </c>
+      <c r="E236" s="1">
+        <v>2</v>
+      </c>
+      <c r="F236" s="1">
+        <v>0</v>
+      </c>
+      <c r="G236" s="1">
+        <v>7</v>
+      </c>
+      <c r="H236" s="1">
+        <v>0</v>
+      </c>
+      <c r="I236" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B237">
-        <v>600</v>
+        <v>1125</v>
       </c>
       <c r="C237">
-        <v>95</v>
+        <v>164</v>
       </c>
       <c r="D237">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="E237">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="F237">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="G237">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -8022,25 +8014,25 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B238">
-        <v>1186</v>
+        <v>250</v>
       </c>
       <c r="C238">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="D238">
-        <v>157</v>
+        <v>32</v>
       </c>
       <c r="E238">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="F238">
-        <v>87</v>
+        <v>178</v>
       </c>
       <c r="G238">
-        <v>106</v>
+        <v>224</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -8050,55 +8042,55 @@
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B239" s="1">
-        <v>106</v>
-      </c>
-      <c r="C239" s="1">
-        <v>10</v>
-      </c>
-      <c r="D239" s="1">
-        <v>4</v>
-      </c>
-      <c r="E239" s="1">
-        <v>13</v>
-      </c>
-      <c r="F239" s="1">
-        <v>13</v>
-      </c>
-      <c r="G239" s="1">
-        <v>15</v>
-      </c>
-      <c r="H239" s="1">
-        <v>0</v>
-      </c>
-      <c r="I239" s="1">
+      <c r="A239" t="s">
+        <v>238</v>
+      </c>
+      <c r="B239">
+        <v>1759</v>
+      </c>
+      <c r="C239">
+        <v>275</v>
+      </c>
+      <c r="D239">
+        <v>271</v>
+      </c>
+      <c r="E239">
+        <v>277</v>
+      </c>
+      <c r="F239">
+        <v>290</v>
+      </c>
+      <c r="G239">
+        <v>289</v>
+      </c>
+      <c r="H239">
+        <v>0</v>
+      </c>
+      <c r="I239">
         <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B240">
-        <v>1265</v>
+        <v>724</v>
       </c>
       <c r="C240">
-        <v>189</v>
+        <v>91</v>
       </c>
       <c r="D240">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="E240">
-        <v>182</v>
+        <v>111</v>
       </c>
       <c r="F240">
-        <v>260</v>
+        <v>187</v>
       </c>
       <c r="G240">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -8109,25 +8101,25 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B241">
-        <v>148</v>
+        <v>1029</v>
       </c>
       <c r="C241">
-        <v>47</v>
+        <v>150</v>
       </c>
       <c r="D241">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="E241">
-        <v>38</v>
+        <v>174</v>
       </c>
       <c r="F241">
-        <v>39</v>
+        <v>184</v>
       </c>
       <c r="G241">
-        <v>66</v>
+        <v>181</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -8138,25 +8130,25 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B242">
-        <v>1812</v>
+        <v>520</v>
       </c>
       <c r="C242">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="D242">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="E242">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="F242">
-        <v>294</v>
+        <v>65</v>
       </c>
       <c r="G242">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -8167,117 +8159,30 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B243">
-        <v>935</v>
+        <v>789</v>
       </c>
       <c r="C243">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D243">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E243">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F243">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="G243">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="H243">
         <v>0</v>
       </c>
       <c r="I243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>242</v>
-      </c>
-      <c r="B244">
-        <v>1089</v>
-      </c>
-      <c r="C244">
-        <v>153</v>
-      </c>
-      <c r="D244">
-        <v>205</v>
-      </c>
-      <c r="E244">
-        <v>188</v>
-      </c>
-      <c r="F244">
-        <v>192</v>
-      </c>
-      <c r="G244">
-        <v>195</v>
-      </c>
-      <c r="H244">
-        <v>0</v>
-      </c>
-      <c r="I244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>243</v>
-      </c>
-      <c r="B245">
-        <v>860</v>
-      </c>
-      <c r="C245">
-        <v>137</v>
-      </c>
-      <c r="D245">
-        <v>119</v>
-      </c>
-      <c r="E245">
-        <v>130</v>
-      </c>
-      <c r="F245">
-        <v>114</v>
-      </c>
-      <c r="G245">
-        <v>119</v>
-      </c>
-      <c r="H245">
-        <v>0</v>
-      </c>
-      <c r="I245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>244</v>
-      </c>
-      <c r="B246">
-        <v>807</v>
-      </c>
-      <c r="C246">
-        <v>143</v>
-      </c>
-      <c r="D246">
-        <v>90</v>
-      </c>
-      <c r="E246">
-        <v>132</v>
-      </c>
-      <c r="F246">
-        <v>177</v>
-      </c>
-      <c r="G246">
-        <v>193</v>
-      </c>
-      <c r="H246">
-        <v>0</v>
-      </c>
-      <c r="I246">
         <v>0</v>
       </c>
     </row>
